--- a/bayenv_input.xlsx
+++ b/bayenv_input.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csengepetak/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csengepetak/Desktop/WGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936BF15-38BF-0142-8F72-754BE9C46DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F190F5F7-9F34-714C-9E72-1535F1174FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{FDB5176B-DCA5-B941-A574-77F269D4027B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{FDB5176B-DCA5-B941-A574-77F269D4027B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>LOM</t>
   </si>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,15 +801,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B97ADE-F755-C442-9EE9-7ADCA8C14DDB}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A8" sqref="A8:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.43742823130175473</v>
       </c>
@@ -828,8 +828,11 @@
       <c r="F1">
         <v>-0.8307820588237731</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-0.20271013766372281</v>
       </c>
@@ -848,8 +851,11 @@
       <c r="F2">
         <v>1.6343459693219193</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.0915573493207034</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="F3">
         <v>-0.73990653973594123</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1.0872517326882725</v>
       </c>
@@ -888,8 +897,11 @@
       <c r="F4">
         <v>1.5324231241877864</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.65127683940720682</v>
       </c>
@@ -906,6 +918,128 @@
         <v>0.29350175693179642</v>
       </c>
       <c r="F5">
+        <v>1.847241877649856</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.43742823130175473</v>
+      </c>
+      <c r="B9">
+        <v>-0.20271013766372281</v>
+      </c>
+      <c r="C9">
+        <v>1.0915573493207034</v>
+      </c>
+      <c r="D9">
+        <v>-1.0872517326882725</v>
+      </c>
+      <c r="E9">
+        <v>-0.65127683940720682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.8335495846910526</v>
+      </c>
+      <c r="B10">
+        <v>0.50311415200642684</v>
+      </c>
+      <c r="C10">
+        <v>1.2685012857821161</v>
+      </c>
+      <c r="D10">
+        <v>-0.60958213462735511</v>
+      </c>
+      <c r="E10">
+        <v>-0.75805401173584208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-0.66039393756975062</v>
+      </c>
+      <c r="B11">
+        <v>-0.40733654336654551</v>
+      </c>
+      <c r="C11">
+        <v>0.17959559068837785</v>
+      </c>
+      <c r="D11">
+        <v>0.83512363112227794</v>
+      </c>
+      <c r="E11">
+        <v>-2.2730861988072122E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-0.2993800780205319</v>
+      </c>
+      <c r="B12">
+        <v>-1.3562769836355761</v>
+      </c>
+      <c r="C12">
+        <v>-0.90838591221550335</v>
+      </c>
+      <c r="D12">
+        <v>-0.63167830536100567</v>
+      </c>
+      <c r="E12">
+        <v>-0.70868192145053099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-0.48042174157875173</v>
+      </c>
+      <c r="B13">
+        <v>-0.17113645666250449</v>
+      </c>
+      <c r="C13">
+        <v>-0.89136177383976178</v>
+      </c>
+      <c r="D13">
+        <v>-3.9034582633426317E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.29350175693179642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-0.8307820588237731</v>
+      </c>
+      <c r="B14">
+        <v>1.6343459693219193</v>
+      </c>
+      <c r="C14">
+        <v>-0.73990653973594123</v>
+      </c>
+      <c r="D14">
+        <v>1.5324231241877864</v>
+      </c>
+      <c r="E14">
         <v>1.847241877649856</v>
       </c>
     </row>
